--- a/Tier_List/Tier_List_赤.xlsx
+++ b/Tier_List/Tier_List_赤.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tatematsukenichirou/Desktop/my_page/MyGame/ヤムチャゲーム/Tier_List/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78FE79EC-16BC-3E42-B66B-5F52F23C2304}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5064B33A-1875-0242-ABE1-51C89546E4A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28300" windowHeight="16260" xr2:uid="{5855CEF1-D0F8-4B40-86B7-CA599209ABDB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{5855CEF1-D0F8-4B40-86B7-CA599209ABDB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>アンデラ(アンディ)</t>
   </si>
@@ -103,6 +103,116 @@
   </si>
   <si>
     <t>進撃の巨人(8エレン家がぁあ)</t>
+  </si>
+  <si>
+    <t>マクロス(FireBomber)</t>
+  </si>
+  <si>
+    <t>マクロス(ジーナス)</t>
+  </si>
+  <si>
+    <t>キン肉マン(キン肉マン&amp;テリーマン)</t>
+  </si>
+  <si>
+    <t>キン肉マン(ロビンマスク)</t>
+  </si>
+  <si>
+    <t>SHY(ミェンロン)</t>
+  </si>
+  <si>
+    <t>アークナイツ(ペンギン急便)</t>
+  </si>
+  <si>
+    <t>アークナイツ(龍門)</t>
+  </si>
+  <si>
+    <t>コードギアス(アッシュホード学園)</t>
+  </si>
+  <si>
+    <t>コードギアス(ピザ)</t>
+  </si>
+  <si>
+    <t>シャニマス(放課後クライマックス)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テイルズ(アルフォン&amp;シオン)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>テイルズ(ロウ&amp;リンウェル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノワール(カナタ&amp;ミステル)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノワール(クラウディア&amp;フラム)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイキュー(日向&amp;影山)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒロアカ(爆豪&amp;桐島)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まどマギ(さやか&amp;杏子)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>まどマギ(まどか&amp;ほむら)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮面ライダー(ファイズ)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬼滅の刃(かまぼこ隊)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬼滅の刃(宇髄天元)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鬼滅の刃(煉獄)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>銀魂(桂)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪術(夏油)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>進撃の巨人(104期兵団)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄拳(デビル仁)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄拳(一八三島)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幽遊白書(蔵馬&amp;幽助)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>幽遊白書(飛影&amp;蔵馬)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハイキュー(月島)</t>
   </si>
 </sst>
 </file>
@@ -192,7 +302,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -206,6 +316,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -542,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{454932CE-C725-464C-8BE2-F621251343CA}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -564,15 +677,15 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B2" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="2" t="s">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="B3" s="4">
         <v>3</v>
@@ -580,82 +693,82 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="2" t="s">
-        <v>2</v>
+        <v>25</v>
       </c>
       <c r="B4" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B5" s="4">
-        <v>4</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="2" t="s">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="B6" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="4">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="4">
+    <row r="11" spans="1:2">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="4">
         <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="4">
-        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>17</v>
+      <c r="A13" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="B13" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -675,38 +788,281 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B26" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B31" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B35" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B36" s="4">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="4">
+      <c r="B37" s="4">
         <v>1.5</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="4">
+    <row r="38" spans="1:2">
+      <c r="A38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B38" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B39" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B41" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B43" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B44" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="4">
+      <c r="B45" s="4">
         <v>2</v>
       </c>
     </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B49">
+    <sortCondition ref="A2:A49"/>
+  </sortState>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
